--- a/Extracted-Parameters.xlsx
+++ b/Extracted-Parameters.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueerding/Desktop/MiCM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueerding/Desktop/MiCM/MiCM-summer-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DBDB7D-9765-EA4C-82F5-FEA752A2EFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847675E-52FC-574D-8BF5-8820BCA120AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{120EE548-8F36-174D-B7B2-7E8CED8C793C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{120EE548-8F36-174D-B7B2-7E8CED8C793C}"/>
   </bookViews>
   <sheets>
     <sheet name="Synuclein Triplication" sheetId="1" r:id="rId1"/>
     <sheet name="Control" sheetId="2" r:id="rId2"/>
-    <sheet name="Combined" sheetId="3" r:id="rId3"/>
-    <sheet name="Edited" sheetId="4" r:id="rId4"/>
+    <sheet name="Combined by plate" sheetId="3" r:id="rId3"/>
+    <sheet name="Combined by line" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -592,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C1E165-BE81-1849-8C72-8C5FC050EE7E}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4776,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB507D4-6C3A-0447-BEB5-C817690D818F}">
   <dimension ref="A4:K131"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8854,7 +8853,7 @@
   <dimension ref="A4:L131"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
